--- a/hardware/Advanced_Shield_BOM.xlsx
+++ b/hardware/Advanced_Shield_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="23070" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>Schematic Name</t>
   </si>
@@ -258,6 +258,48 @@
   </si>
   <si>
     <t>RC1206JR-07100KL</t>
+  </si>
+  <si>
+    <t>6x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>3-644456-6</t>
+  </si>
+  <si>
+    <t>571-3-644456-6</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity/3-644456-6/?qs=sGAEpiMZZMs%252bGHln7q6pm5PveGu%252bNdYGb8ubr3nswks%3d</t>
+  </si>
+  <si>
+    <t>8x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>3-644456-8</t>
+  </si>
+  <si>
+    <t>571-3-644456-8</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity/3-644456-8/?qs=%2fha2pyFaduhq9SnO3b23Xnp5ZlHUH1n%252bOjVXxNdDMLY%3d</t>
+  </si>
+  <si>
+    <t>10x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>1-640456-0</t>
+  </si>
+  <si>
+    <t>571-16404560</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity-AMP/1-640456-0/?qs=sGAEpiMZZMs%252bGHln7q6pm5E1Eb6qwPl20NYDFBq3IPM%3d</t>
+  </si>
+  <si>
+    <t>Headers</t>
   </si>
 </sst>
 </file>
@@ -266,7 +308,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -350,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -393,6 +435,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -402,7 +453,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,7 +461,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30" customBuiltin="1"/>
@@ -696,24 +750,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="131.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -833,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F15" si="0">_xlfn.CEILING.MATH(1.1*E4*30)</f>
+        <f t="shared" ref="F4:F18" si="0">_xlfn.CEILING.MATH(1.1*E4*30)</f>
         <v>66</v>
       </c>
       <c r="G4" s="5">
@@ -1112,7 +1166,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ref="H12:H15" si="2">G12*F12</f>
+        <f t="shared" ref="H12:H18" si="2">G12*F12</f>
         <v>26.433</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1190,87 +1244,143 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>0.58079999999999998</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7">
-        <f>SUM(H2:H15)</f>
-        <v>430.65000000000003</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="7">
-        <f>H17/30</f>
-        <v>14.355</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>6.93</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>31.085999999999999</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.307</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>10.131</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1282,14 +1392,63 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
+    <row r="20" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="7">
+        <f>SUM(H2:H18)</f>
+        <v>478.79700000000003</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="7">
+        <f>H20/30</f>
+        <v>15.959900000000001</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J12" r:id="rId1"/>
     <hyperlink ref="J13" r:id="rId2"/>
     <hyperlink ref="J14" r:id="rId3"/>
     <hyperlink ref="J15" r:id="rId4"/>
+    <hyperlink ref="J16" r:id="rId5"/>
+    <hyperlink ref="J17" r:id="rId6"/>
+    <hyperlink ref="J18" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>